--- a/team_specific_matrix/Morgan St._B.xlsx
+++ b/team_specific_matrix/Morgan St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2337662337662338</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C2">
-        <v>0.4805194805194805</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008658008658008658</v>
+        <v>0.01602564102564102</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1904761904761905</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08658008658008658</v>
+        <v>0.09935897435897435</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07079646017699115</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7345132743362832</v>
+        <v>0.76</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1946902654867257</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08527131782945736</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06201550387596899</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3410852713178295</v>
+        <v>0.3313953488372093</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01550387596899225</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09302325581395349</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="R6">
-        <v>0.0310077519379845</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="S6">
-        <v>0.3720930232558139</v>
+        <v>0.3837209302325582</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1327433628318584</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02654867256637168</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03539823008849557</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1946902654867257</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03539823008849557</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1150442477876106</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="R7">
-        <v>0.04424778761061947</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="S7">
-        <v>0.415929203539823</v>
+        <v>0.4090909090909091</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1203703703703704</v>
+        <v>0.1187648456057007</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01851851851851852</v>
+        <v>0.02137767220902613</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04320987654320987</v>
+        <v>0.04513064133016627</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1327160493827161</v>
+        <v>0.1401425178147268</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01851851851851852</v>
+        <v>0.01900237529691211</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1820987654320988</v>
+        <v>0.1900237529691211</v>
       </c>
       <c r="R8">
-        <v>0.1018518518518518</v>
+        <v>0.09026128266033254</v>
       </c>
       <c r="S8">
-        <v>0.382716049382716</v>
+        <v>0.3752969121140142</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1265822784810127</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0379746835443038</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0759493670886076</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0759493670886076</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.05063291139240506</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1772151898734177</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="R9">
-        <v>0.0379746835443038</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="S9">
-        <v>0.4177215189873418</v>
+        <v>0.4128440366972477</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1209476309226933</v>
+        <v>0.1198237885462555</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01745635910224439</v>
+        <v>0.02114537444933921</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06483790523690773</v>
+        <v>0.05991189427312775</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1371571072319202</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01870324189526185</v>
+        <v>0.01938325991189427</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2481296758104738</v>
+        <v>0.2537444933920705</v>
       </c>
       <c r="R10">
-        <v>0.06733167082294264</v>
+        <v>0.07488986784140969</v>
       </c>
       <c r="S10">
-        <v>0.3254364089775561</v>
+        <v>0.3145374449339207</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1925465838509317</v>
+        <v>0.2027649769585254</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09937888198757763</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="K11">
-        <v>0.1987577639751553</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L11">
-        <v>0.5093167701863354</v>
+        <v>0.5253456221198156</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7613636363636364</v>
+        <v>0.7622950819672131</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1818181818181818</v>
+        <v>0.1885245901639344</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04545454545454546</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01136363636363636</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.85</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.15</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02380952380952381</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1825396825396825</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="I15">
-        <v>0.04761904761904762</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="J15">
-        <v>0.3809523809523809</v>
+        <v>0.4022988505747127</v>
       </c>
       <c r="K15">
-        <v>0.05555555555555555</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03174603174603174</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2777777777777778</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.198581560283688</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="I16">
-        <v>0.0425531914893617</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="J16">
-        <v>0.4397163120567376</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="K16">
-        <v>0.09929078014184398</v>
+        <v>0.09183673469387756</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007092198581560284</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03546099290780142</v>
+        <v>0.04591836734693878</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1560283687943262</v>
+        <v>0.1377551020408163</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01730103806228374</v>
+        <v>0.02184466019417476</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1868512110726644</v>
+        <v>0.1868932038834951</v>
       </c>
       <c r="I17">
-        <v>0.07612456747404844</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="J17">
-        <v>0.4809688581314879</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="K17">
-        <v>0.07958477508650519</v>
+        <v>0.08009708737864078</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04844290657439446</v>
+        <v>0.0412621359223301</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1107266435986159</v>
+        <v>0.1116504854368932</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.18</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="I18">
-        <v>0.06</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J18">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="K18">
-        <v>0.08</v>
+        <v>0.06428571428571428</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07000000000000001</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.14</v>
+        <v>0.1285714285714286</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02254641909814323</v>
+        <v>0.02178217821782178</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2745358090185677</v>
+        <v>0.2584158415841584</v>
       </c>
       <c r="I19">
-        <v>0.05305039787798409</v>
+        <v>0.05346534653465346</v>
       </c>
       <c r="J19">
-        <v>0.3222811671087533</v>
+        <v>0.3376237623762376</v>
       </c>
       <c r="K19">
-        <v>0.09814323607427056</v>
+        <v>0.102970297029703</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02652519893899204</v>
+        <v>0.02574257425742574</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07294429708222812</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.129973474801061</v>
+        <v>0.1257425742574257</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Morgan St._B.xlsx
+++ b/team_specific_matrix/Morgan St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2307692307692308</v>
+        <v>0.2251461988304093</v>
       </c>
       <c r="C2">
-        <v>0.4743589743589743</v>
+        <v>0.4853801169590643</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01602564102564102</v>
+        <v>0.01461988304093567</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1794871794871795</v>
+        <v>0.1783625730994152</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09935897435897435</v>
+        <v>0.09649122807017543</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.76</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1547619047619048</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06976744186046512</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05813953488372093</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3313953488372093</v>
+        <v>0.3422459893048128</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01744186046511628</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09883720930232558</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="R6">
-        <v>0.04069767441860465</v>
+        <v>0.0374331550802139</v>
       </c>
       <c r="S6">
-        <v>0.3837209302325582</v>
+        <v>0.3689839572192513</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02597402597402598</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03246753246753246</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1948051948051948</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03246753246753246</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1038961038961039</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="R7">
-        <v>0.05844155844155844</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="S7">
-        <v>0.4090909090909091</v>
+        <v>0.4186046511627907</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1187648456057007</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02137767220902613</v>
+        <v>0.02192982456140351</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04513064133016627</v>
+        <v>0.04605263157894737</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1401425178147268</v>
+        <v>0.1425438596491228</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01900237529691211</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1900237529691211</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="R8">
-        <v>0.09026128266033254</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="S8">
-        <v>0.3752969121140142</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1284403669724771</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03669724770642202</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08256880733944955</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09174311926605505</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04587155963302753</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1743119266055046</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="R9">
-        <v>0.02752293577981652</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="S9">
-        <v>0.4128440366972477</v>
+        <v>0.412280701754386</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1198237885462555</v>
+        <v>0.1222044728434505</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02114537444933921</v>
+        <v>0.01996805111821086</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0007987220447284345</v>
       </c>
       <c r="F10">
-        <v>0.05991189427312775</v>
+        <v>0.06070287539936102</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1365638766519824</v>
+        <v>0.1381789137380192</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01938325991189427</v>
+        <v>0.01837060702875399</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2537444933920705</v>
+        <v>0.2476038338658147</v>
       </c>
       <c r="R10">
-        <v>0.07488986784140969</v>
+        <v>0.07268370607028754</v>
       </c>
       <c r="S10">
-        <v>0.3145374449339207</v>
+        <v>0.3194888178913738</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2027649769585254</v>
+        <v>0.1974789915966386</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07834101382488479</v>
+        <v>0.07983193277310924</v>
       </c>
       <c r="K11">
-        <v>0.1935483870967742</v>
+        <v>0.1932773109243698</v>
       </c>
       <c r="L11">
-        <v>0.5253456221198156</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7622950819672131</v>
+        <v>0.7744360902255639</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1885245901639344</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03278688524590164</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01639344262295082</v>
+        <v>0.01503759398496241</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6785714285714286</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02298850574712644</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1609195402298851</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="I15">
-        <v>0.05747126436781609</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="J15">
-        <v>0.4022988505747127</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="K15">
-        <v>0.04597701149425287</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03448275862068965</v>
+        <v>0.03763440860215054</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2758620689655172</v>
+        <v>0.2849462365591398</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01530612244897959</v>
+        <v>0.01363636363636364</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2040816326530612</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.06122448979591837</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="J16">
-        <v>0.4387755102040816</v>
+        <v>0.45</v>
       </c>
       <c r="K16">
-        <v>0.09183673469387756</v>
+        <v>0.1</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00510204081632653</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04591836734693878</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1377551020408163</v>
+        <v>0.1318181818181818</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02184466019417476</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1868932038834951</v>
+        <v>0.1865168539325843</v>
       </c>
       <c r="I17">
-        <v>0.05825242718446602</v>
+        <v>0.06067415730337079</v>
       </c>
       <c r="J17">
-        <v>0.4951456310679612</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="K17">
-        <v>0.08009708737864078</v>
+        <v>0.08314606741573034</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.004854368932038835</v>
+        <v>0.008988764044943821</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0412621359223301</v>
+        <v>0.04044943820224719</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1116504854368932</v>
+        <v>0.1146067415730337</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01428571428571429</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1642857142857143</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="I18">
-        <v>0.07142857142857142</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.4834437086092715</v>
       </c>
       <c r="K18">
-        <v>0.06428571428571428</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05714285714285714</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1285714285714286</v>
+        <v>0.1258278145695364</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02178217821782178</v>
+        <v>0.02075812274368231</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2584158415841584</v>
+        <v>0.2536101083032491</v>
       </c>
       <c r="I19">
-        <v>0.05346534653465346</v>
+        <v>0.05144404332129964</v>
       </c>
       <c r="J19">
-        <v>0.3376237623762376</v>
+        <v>0.3501805054151624</v>
       </c>
       <c r="K19">
-        <v>0.102970297029703</v>
+        <v>0.09927797833935018</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02574257425742574</v>
+        <v>0.02617328519855596</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07425742574257425</v>
+        <v>0.07310469314079422</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1257425742574257</v>
+        <v>0.1254512635379061</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Morgan St._B.xlsx
+++ b/team_specific_matrix/Morgan St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2251461988304093</v>
+        <v>0.223433242506812</v>
       </c>
       <c r="C2">
-        <v>0.4853801169590643</v>
+        <v>0.4904632152588556</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01461988304093567</v>
+        <v>0.01362397820163488</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1783625730994152</v>
+        <v>0.1771117166212534</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09649122807017543</v>
+        <v>0.09536784741144415</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07142857142857142</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7738095238095238</v>
+        <v>0.7595628415300546</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1547619047619048</v>
+        <v>0.1693989071038251</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04761904761904762</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06417112299465241</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05882352941176471</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3422459893048128</v>
+        <v>0.3417085427135678</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0160427807486631</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1122994652406417</v>
+        <v>0.1055276381909548</v>
       </c>
       <c r="R6">
-        <v>0.0374331550802139</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="S6">
-        <v>0.3689839572192513</v>
+        <v>0.3718592964824121</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1395348837209302</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02325581395348837</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02906976744186046</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1918604651162791</v>
+        <v>0.1736842105263158</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03488372093023256</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1104651162790698</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="R7">
-        <v>0.05232558139534884</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="S7">
-        <v>0.4186046511627907</v>
+        <v>0.4105263157894737</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1206140350877193</v>
+        <v>0.1156862745098039</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02192982456140351</v>
+        <v>0.02156862745098039</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04605263157894737</v>
+        <v>0.04313725490196078</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1425438596491228</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01754385964912281</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1842105263157895</v>
+        <v>0.1843137254901961</v>
       </c>
       <c r="R8">
-        <v>0.09210526315789473</v>
+        <v>0.09215686274509804</v>
       </c>
       <c r="S8">
-        <v>0.375</v>
+        <v>0.3862745098039216</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.131578947368421</v>
+        <v>0.1260504201680672</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03508771929824561</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07894736842105263</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08771929824561403</v>
+        <v>0.08403361344537816</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04385964912280702</v>
+        <v>0.04201680672268908</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1754385964912281</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.03508771929824561</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="S9">
-        <v>0.412280701754386</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1222044728434505</v>
+        <v>0.1228464419475655</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01996805111821086</v>
+        <v>0.02022471910112359</v>
       </c>
       <c r="E10">
-        <v>0.0007987220447284345</v>
+        <v>0.000749063670411985</v>
       </c>
       <c r="F10">
-        <v>0.06070287539936102</v>
+        <v>0.06142322097378277</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1381789137380192</v>
+        <v>0.1415730337078652</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01837060702875399</v>
+        <v>0.01722846441947565</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2476038338658147</v>
+        <v>0.2411985018726592</v>
       </c>
       <c r="R10">
-        <v>0.07268370607028754</v>
+        <v>0.07415730337078652</v>
       </c>
       <c r="S10">
-        <v>0.3194888178913738</v>
+        <v>0.3205992509363296</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1974789915966386</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07983193277310924</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K11">
-        <v>0.1932773109243698</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="L11">
-        <v>0.5294117647058824</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7744360902255639</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1804511278195489</v>
+        <v>0.1689189189189189</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03007518796992481</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01503759398496241</v>
+        <v>0.01351351351351351</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7058823529411765</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2647058823529412</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02941176470588235</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02150537634408602</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1505376344086022</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="I15">
-        <v>0.05376344086021505</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="J15">
-        <v>0.4032258064516129</v>
+        <v>0.3969072164948453</v>
       </c>
       <c r="K15">
-        <v>0.04838709677419355</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03763440860215054</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2849462365591398</v>
+        <v>0.2938144329896907</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01363636363636364</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.2008547008547009</v>
       </c>
       <c r="I16">
-        <v>0.05454545454545454</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J16">
-        <v>0.45</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.00909090909090909</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04090909090909091</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1318181818181818</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02247191011235955</v>
+        <v>0.02114164904862579</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1865168539325843</v>
+        <v>0.1902748414376321</v>
       </c>
       <c r="I17">
-        <v>0.06067415730337079</v>
+        <v>0.05708245243128964</v>
       </c>
       <c r="J17">
-        <v>0.4831460674157304</v>
+        <v>0.4778012684989429</v>
       </c>
       <c r="K17">
-        <v>0.08314606741573034</v>
+        <v>0.08456659619450317</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.008988764044943821</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04044943820224719</v>
+        <v>0.040169133192389</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1146067415730337</v>
+        <v>0.120507399577167</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01324503311258278</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1854304635761589</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="I18">
-        <v>0.06622516556291391</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="J18">
-        <v>0.4834437086092715</v>
+        <v>0.463855421686747</v>
       </c>
       <c r="K18">
-        <v>0.0728476821192053</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05298013245033113</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1258278145695364</v>
+        <v>0.1325301204819277</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02075812274368231</v>
+        <v>0.01978565539983512</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2536101083032491</v>
+        <v>0.2629843363561418</v>
       </c>
       <c r="I19">
-        <v>0.05144404332129964</v>
+        <v>0.0494641384995878</v>
       </c>
       <c r="J19">
-        <v>0.3501805054151624</v>
+        <v>0.3446001648804617</v>
       </c>
       <c r="K19">
-        <v>0.09927797833935018</v>
+        <v>0.1030502885408079</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02617328519855596</v>
+        <v>0.02555647155812036</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07310469314079422</v>
+        <v>0.06924979389942292</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1254512635379061</v>
+        <v>0.1253091508656224</v>
       </c>
     </row>
   </sheetData>
